--- a/Excel-Skill-Map.xlsx
+++ b/Excel-Skill-Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThepExcel\web\excel map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D0E47-173A-43C5-824E-C65B787A088E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA05DD7-91A4-4C2B-9B2C-9FA95F002F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5857C4E9-5388-4732-8D74-0FA4480EF54E}" type="CELLRANGE">
+                    <a:fld id="{249BCC48-19E4-4CD8-9BDE-200D2312C7C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1052,7 +1052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EC03486-F75F-489C-AB6D-BCB01AA6017B}" type="CELLRANGE">
+                    <a:fld id="{8E71D15A-D769-4C8E-AA41-9BAA1F0CEE41}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1086,7 +1086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54ED780D-7F26-4750-A9F6-1256416D943E}" type="CELLRANGE">
+                    <a:fld id="{F6B512EF-0AFC-49DD-B8F5-428EB3D78830}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1120,7 +1120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C2F06EA-39FB-445A-93EE-087AEA8E48F1}" type="CELLRANGE">
+                    <a:fld id="{6E564C54-F028-483A-9425-A19425040281}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1154,7 +1154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1BC9465-55E5-4EAA-87CB-8DEE9F88E4DB}" type="CELLRANGE">
+                    <a:fld id="{9419CB23-92ED-47BC-A64D-EA4661078207}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1381,22 +1381,22 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.8</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.8</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.8</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.8</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.8</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.8</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB966830-5183-48B8-9C69-B2EDD2612EBD}" type="CELLRANGE">
+                    <a:fld id="{0478B0F8-B6A2-436A-A851-CAC3244D2B02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1534,7 +1534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E0542C2-167B-4F09-9B3D-3AE31F8AAC14}" type="CELLRANGE">
+                    <a:fld id="{3DD45A9C-D628-49C1-A241-581FABF4DFF3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1567,7 +1567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23EF74CA-CB46-44A1-BFF1-4B8C24F320DE}" type="CELLRANGE">
+                    <a:fld id="{DB73C89B-6FD3-4D7A-83B2-AC53CFE01622}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1600,7 +1600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E513DF5C-E5B3-4D9F-B6A6-25CA23A47414}" type="CELLRANGE">
+                    <a:fld id="{18C60C1F-5A6F-4581-8D0B-F513DA2043E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1633,7 +1633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC96B36A-B325-4E62-852F-D6612724D046}" type="CELLRANGE">
+                    <a:fld id="{4661E21A-9DE8-49D0-8909-E1BEED18BC08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1676,7 +1676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0821F921-F179-45CE-BE8F-68DDCF286D4E}" type="CELLRANGE">
+                    <a:fld id="{51E2D540-9A60-47EC-AA36-E8277B02379C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2039,7 +2039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4589D2F0-FCB7-44C0-9A46-79F565E2A941}" type="CELLRANGE">
+                    <a:fld id="{D1191817-91B5-4D06-BFE2-367A8C907385}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2072,7 +2072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF50B3FF-AF05-44F6-9E0E-3DB7949EAAFA}" type="CELLRANGE">
+                    <a:fld id="{38FFEC6B-7B8B-4840-A70F-58D6852CDDC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2115,7 +2115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D27F704E-DD54-40CB-BAA7-0B48A0CBA992}" type="CELLRANGE">
+                    <a:fld id="{461366A7-2AE7-4BCE-AD95-287DA8DE9F81}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2148,7 +2148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3EFAFAF-CE02-4201-82B0-854DDD8EE7F4}" type="CELLRANGE">
+                    <a:fld id="{42BC7B71-B592-4A98-BDA7-F96DE90E189D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2181,7 +2181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85181A8F-FE9E-47EC-9B37-A336CC6AA422}" type="CELLRANGE">
+                    <a:fld id="{14DD1D8D-8B7A-4C02-9227-C9C22DCB55D0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2214,7 +2214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0F8E1A1-BAEF-4829-8270-B40E37684E08}" type="CELLRANGE">
+                    <a:fld id="{244EE062-EE67-4402-B1C7-A40074A941A0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2245,6 +2245,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4419-4421-A54E-F9855BEA717A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2254,7 +2257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A698E98-4979-4A86-8AAC-3583B217176D}" type="CELLRANGE">
+                    <a:fld id="{0010AA89-48D0-45B4-968F-AB74BA5966F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2287,7 +2290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E6BB7B1-0E6D-4EB5-BEE4-7FF79226D375}" type="CELLRANGE">
+                    <a:fld id="{26E72626-89A9-49BA-B235-4462A596729D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2318,6 +2321,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-4419-4421-A54E-F9855BEA717A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2327,7 +2333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93CBBEFB-202F-4131-A118-AC73C6BCE0EF}" type="CELLRANGE">
+                    <a:fld id="{3EAF54BE-1822-4FC1-8D86-5853C7761F34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2347,6 +2353,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-4419-4421-A54E-F9855BEA717A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2651,7 +2660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36C71416-BEEF-4A37-BCF8-A77322BBF0BD}" type="CELLRANGE">
+                    <a:fld id="{2CF09FD7-AC3F-4CF5-8EC1-7184DD4F092E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2685,7 +2694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AA082D3-716E-432F-9671-624F20C4D299}" type="CELLRANGE">
+                    <a:fld id="{F6FA7150-1CEC-42EB-876F-F23C8E4AD924}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2729,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21CBA65B-B5E4-4F69-B50A-094E82B07F4C}" type="CELLRANGE">
+                    <a:fld id="{3E4F4693-7C02-4BCC-924A-DD24D22962B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2763,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B57A4863-78CE-4C80-8714-1EC551B34355}" type="CELLRANGE">
+                    <a:fld id="{B379FDAC-3C75-44DD-BF5F-6EFD536AC54B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2797,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF937D9D-5AFD-4FC4-AE94-792413B557CC}" type="CELLRANGE">
+                    <a:fld id="{AF2CBC0C-0CE2-4AA1-B36E-17727792074B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2831,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{073847E3-6C10-462C-9CD0-A6AB014464F4}" type="CELLRANGE">
+                    <a:fld id="{9B32DC62-221C-4536-B831-5742A3080B5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2875,7 +2884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0132FF35-82FC-4AA5-8E2D-03CBD20DDE89}" type="CELLRANGE">
+                    <a:fld id="{0AFC2613-2C35-440A-95A2-E7B63186E9F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2908,7 +2917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C60DC699-ECFA-4B6D-B6CD-058864948F2C}" type="CELLRANGE">
+                    <a:fld id="{B2089C23-5ADB-470A-9494-6D914EDA86B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2941,7 +2950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37D16981-4CD3-4674-8D3F-41EA7BEAAFC0}" type="CELLRANGE">
+                    <a:fld id="{7AB2CD59-9252-42A9-B738-837497031EF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2974,7 +2983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A898C2F-8383-4F69-A5BC-3FA1B32BD94C}" type="CELLRANGE">
+                    <a:fld id="{DF812021-C415-42E3-996A-54EA25C8F9B2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2995,6 +3004,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-4419-4421-A54E-F9855BEA717A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3002,6 +3014,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-4419-4421-A54E-F9855BEA717A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3338,7 +3353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D23E205C-3BFF-49C0-9A73-CF68BF8D0D1B}" type="CELLRANGE">
+                    <a:fld id="{FD1EEA60-56B6-4E09-9CE8-55D13AE9F11E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3371,7 +3386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3876F666-A5CD-4FB3-90CA-BE5D14A18FC6}" type="CELLRANGE">
+                    <a:fld id="{DA55CDF8-4419-4E5A-B91A-CE31F736228E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3405,7 +3420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA6E2CA4-9E70-484C-BCA0-32E336E72008}" type="CELLRANGE">
+                    <a:fld id="{B0901E48-1444-4549-B6EE-52975E9E9B27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3651,7 +3666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE78DB0B-64F5-4140-8353-250D1479582A}" type="CELLRANGE">
+                    <a:fld id="{C8EAAC34-DC40-4669-A53B-3704359B9B2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3685,7 +3700,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D5DC9C7-3E4F-4255-9A6C-25D30566C477}" type="CELLRANGE">
+                    <a:fld id="{B61EEBA6-77A9-4368-A3C4-602AA4EA065D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3719,7 +3734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65AEDB51-C563-47AA-BC63-8D777D8C4745}" type="CELLRANGE">
+                    <a:fld id="{FCC1DB3B-4EAF-4442-B478-F6DCEE573D0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3918,7 +3933,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{232F516A-405B-4CBF-94B4-008708A8D687}" type="CELLRANGE">
+                    <a:fld id="{304E0441-CFDC-4037-BF61-B685ADDA4F7A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -3974,7 +3989,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8B23BC81-5A87-438F-97F1-41A4BC80B33E}" type="CELLRANGE">
+                    <a:fld id="{FEB07800-CC4A-463B-8EF1-B3D3E4B691E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4030,7 +4045,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C24AFF1C-DA28-47B2-8D96-72187D3A79BF}" type="CELLRANGE">
+                    <a:fld id="{8BBDD07D-9C75-4841-B1C5-F73358A6DE9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4077,7 +4092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F97B5CF-A6D3-4EAF-8F0C-286EE3051C67}" type="CELLRANGE">
+                    <a:fld id="{0BFA02D2-78B7-44EA-B675-A3C2F4BECE08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4120,7 +4135,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{6D6EE8E4-5D5E-4B4F-9463-1171186F7E68}" type="CELLRANGE">
+                    <a:fld id="{162A3879-9B10-414D-A4B9-80B3F65F41C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4247,7 +4262,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E474ECAA-1B4E-48FC-B3D7-BC792C3CB598}" type="CELLRANGE">
+                    <a:fld id="{F9086152-0E89-4265-B663-094B2AB0C6E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4461,7 +4476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{081B5085-10F7-42E5-8515-6E0E7FD70317}" type="CELLRANGE">
+                    <a:fld id="{1050FF0F-7452-406B-9BBB-C7EADF5E8F5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4494,7 +4509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C70C9786-94F3-407F-A844-7337EEE09B02}" type="CELLRANGE">
+                    <a:fld id="{3C4B0B0B-E024-44C6-B257-E69CA7A78C4A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4528,7 +4543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1F56A24-5573-4A88-A446-F357B6E855D3}" type="CELLRANGE">
+                    <a:fld id="{08975F5C-7689-4741-A96E-E8F14BED2F6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4562,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AAC09B1-1D72-4614-AB9B-65F5C225058C}" type="CELLRANGE">
+                    <a:fld id="{BE54FDDE-D912-48C4-AEAE-3B1210F307D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4595,7 +4610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE945A54-0D44-48F9-A296-728493AC6EA6}" type="CELLRANGE">
+                    <a:fld id="{D4D69C5B-2D61-4E62-B613-982E43DBB46B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4628,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01A7D010-9B84-4D92-B06F-543744E8CCBF}" type="CELLRANGE">
+                    <a:fld id="{2F274809-3BF0-4BFB-9CEA-0FFC33AB465F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4661,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF1E2F8F-AFE6-4B03-B7F1-6B0A0E7C2E4F}" type="CELLRANGE">
+                    <a:fld id="{CA02B6BE-3D36-4B3C-830E-90912561986B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4694,7 +4709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB60B0DD-7CB3-4B9D-9A16-E5391225CCD0}" type="CELLRANGE">
+                    <a:fld id="{F3EBB6E8-6F92-4A3D-A28A-9FFA27F2A752}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4727,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3556D40-1D43-4840-8207-919AAF6E1E8C}" type="CELLRANGE">
+                    <a:fld id="{773F8BA1-4FE2-45BD-A9D0-7C1D35CEE64F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4760,7 +4775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7FD1125-8F33-483A-9E7E-DAB429DC69CA}" type="CELLRANGE">
+                    <a:fld id="{58D97BA7-41A2-4586-B61C-B3E75A779D37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4793,7 +4808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28D958D2-782A-4708-ADCB-BED398F58FDB}" type="CELLRANGE">
+                    <a:fld id="{028776E2-F18C-444D-9F03-60A3ECEB2A11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4826,7 +4841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0151465-A4B8-4429-84DF-0A6A41D8980F}" type="CELLRANGE">
+                    <a:fld id="{400EC090-F65E-439D-851E-E9743F5929C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4865,7 +4880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89F8F27F-1E0E-44D2-B513-B8D4D716E0D3}" type="CELLRANGE">
+                    <a:fld id="{2D2276A2-F144-47F1-B33C-649E98E78A82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4898,7 +4913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{867E13C6-9B51-4F0C-8D86-3CE88308908E}" type="CELLRANGE">
+                    <a:fld id="{10A0E1E2-9CDF-4396-B3AD-831AE6C5D125}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5179,6 +5194,11 @@
                 <a:prstDash val="sysDot"/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-4419-4421-A54E-F9855BEA717A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -5188,7 +5208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6FF54FD-2C75-4546-A97E-01F609AC4391}" type="CELLRANGE">
+                    <a:fld id="{892E0310-E6DB-4BBD-9086-62942AE060D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5206,7 +5226,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5221,7 +5240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FA19DCC-A15B-4EFF-B613-156BC19045F1}" type="CELLRANGE">
+                    <a:fld id="{65CE85C4-5A01-483A-B181-68DD13F83298}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5254,7 +5273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C38599A0-496B-445A-80DE-C9859059EE74}" type="CELLRANGE">
+                    <a:fld id="{6A37038A-1D0B-444E-8130-CA38668961A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5297,7 +5316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{048D60CF-EAEF-46F4-BF63-024EF56FFE5A}" type="CELLRANGE">
+                    <a:fld id="{2963F615-A9BB-44F9-8073-99361F429072}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5330,7 +5349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B03B87B8-F8F8-4BF8-B1C7-6C119C011018}" type="CELLRANGE">
+                    <a:fld id="{754CC01F-6813-4022-8DCC-88B973F4D5DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5363,7 +5382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA58CE2B-87A4-41C2-B512-B69237601A4B}" type="CELLRANGE">
+                    <a:fld id="{CD5FE2C8-0FBD-462F-A813-2551DE398076}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5396,7 +5415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{299EBED5-F92F-4AC2-972A-24824912B87A}" type="CELLRANGE">
+                    <a:fld id="{FD07DFCD-3924-4113-B6A7-7AB8C05B2A33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5429,7 +5448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D4A71C1-7EFF-4F74-9EC6-87F8A05C6D69}" type="CELLRANGE">
+                    <a:fld id="{0B618C15-DBA2-4F56-B834-15EE91575807}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5462,7 +5481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF439276-63B5-4025-A8EB-3FCA1D468FAA}" type="CELLRANGE">
+                    <a:fld id="{44E214AE-EBD2-4673-918E-0755DD6ED665}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5503,6 +5522,9 @@
               <c:delete val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-4419-4421-A54E-F9855BEA717A}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5760,7 +5782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC223A43-92A7-4311-84CF-2283BDB35432}" type="CELLRANGE">
+                    <a:fld id="{1006EEFE-FEDB-40BF-AF21-860B43C64EBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5794,7 +5816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97A3B456-29AA-4E46-86DE-6068866B1E02}" type="CELLRANGE">
+                    <a:fld id="{F17609D0-4215-442E-882F-5ABFFC73DB14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5828,7 +5850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDC310B2-F1B5-46A9-B4AE-E414AB49C1B0}" type="CELLRANGE">
+                    <a:fld id="{41296FE7-DE7F-4AEC-BDCF-57ADB7FF18E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5862,7 +5884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D7C8ADE-154C-4C3E-A689-0F82CA74923B}" type="CELLRANGE">
+                    <a:fld id="{BBD3F9EC-1B1A-4BE2-BD17-31C51F784CB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5896,7 +5918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F2804C9-05E3-49E6-AB0C-758F1EAC5EF2}" type="CELLRANGE">
+                    <a:fld id="{25C9F0D2-C7FB-4B2A-94AE-F55F5711DFB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5930,7 +5952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCA63E99-41AF-4676-BB19-5809F747AF39}" type="CELLRANGE">
+                    <a:fld id="{E758F8AA-53D0-4369-8063-920C1CE66BB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5974,7 +5996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{575484C0-1EBC-4DE0-B9DF-5ACC4C1B0C74}" type="CELLRANGE">
+                    <a:fld id="{C219C1AD-2DF5-4591-8C58-348D6D68E090}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6017,7 +6039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{612E1A12-978F-4FBA-ADFD-7E91DDEA9F70}" type="CELLRANGE">
+                    <a:fld id="{548059C7-7198-48D8-86F3-E7436356A149}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6070,7 +6092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F737F711-E6F4-4342-B0CA-C83AB502FCD1}" type="CELLRANGE">
+                    <a:fld id="{136E1C95-F4E0-49DF-8D72-CA41E9F8D313}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6103,7 +6125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D96283F-231D-4870-AC20-EA3B403A8FC8}" type="CELLRANGE">
+                    <a:fld id="{FF21BEF5-F64A-46CE-A918-CD50905A90D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6450,7 +6472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDB8636A-D529-4AF6-9135-21791A04E598}" type="CELLRANGE">
+                    <a:fld id="{FAAD6F5C-5FBF-4AD5-8FAA-82121287AFF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6483,7 +6505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{738EE88F-D9DF-47EC-908B-C7B7630FE7C5}" type="CELLRANGE">
+                    <a:fld id="{043CA5D4-758D-423C-9F6B-3F987509DB9D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6526,7 +6548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21C02A92-7B28-48B9-95A3-3A44CBA7BF66}" type="CELLRANGE">
+                    <a:fld id="{AA2D70F9-9953-44C6-9489-BCFD0AB72A72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6559,7 +6581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{684CC30B-9FC6-435D-B8B9-04B831AED2CD}" type="CELLRANGE">
+                    <a:fld id="{CC86858E-9FE7-47A5-88EE-AC397FCB0A60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6592,7 +6614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D98FA1CA-05F2-4D64-AA15-EFB6997AE467}" type="CELLRANGE">
+                    <a:fld id="{AE069E3F-0EA8-4A24-BD1C-8926287C3F8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6625,7 +6647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCA60E37-B8BD-41A3-9F1C-455EA1066144}" type="CELLRANGE">
+                    <a:fld id="{FB454A4E-248E-4646-A04E-C89BCBF32B4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6658,7 +6680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2FAB581-85CF-4C90-83FF-01950D5730CB}" type="CELLRANGE">
+                    <a:fld id="{8584A03F-CE4D-4ACC-AB28-9AEBF544913C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6746,25 +6768,25 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.3</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,7 +6900,8 @@
         <c:axId val="1722318016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45"/>
+          <c:max val="41"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
@@ -6935,7 +6958,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85260010051934998"/>
+          <c:x val="0.88215092794251782"/>
           <c:y val="0.25197989278771576"/>
           <c:w val="0.11410165484633569"/>
           <c:h val="0.5411345651618984"/>
@@ -7014,13 +7037,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>69851</xdr:colOff>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>21506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>469901</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2473</xdr:rowOff>
     </xdr:to>
@@ -7037,7 +7060,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="69851" y="4072806"/>
+          <a:off x="457201" y="4072806"/>
           <a:ext cx="3448050" cy="717567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7178,13 +7201,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>178308</xdr:colOff>
+      <xdr:colOff>559308</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>72156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>182720</xdr:colOff>
+      <xdr:colOff>563720</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>133718</xdr:rowOff>
     </xdr:to>
@@ -7215,7 +7238,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="178308" y="4123456"/>
+          <a:off x="559308" y="4123456"/>
           <a:ext cx="614012" cy="614012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7227,20 +7250,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>225802</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143252</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>119148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>97356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 291">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF5DE4C-5DD4-48B7-B43F-0F36B76360FB}"/>
@@ -7251,7 +7275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="835402" y="4170448"/>
+          <a:off x="1362452" y="4170448"/>
           <a:ext cx="2472948" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7383,14 +7407,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
@@ -7407,8 +7431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9086850" y="3340100"/>
-          <a:ext cx="1416050" cy="793750"/>
+          <a:off x="9461500" y="3340100"/>
+          <a:ext cx="1193800" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7863,7 +7887,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7878,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8256,7 +8280,7 @@
         <v>22</v>
       </c>
       <c r="O4">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P4">
         <v>27.599999999999998</v>
@@ -8366,7 +8390,7 @@
         <v>23</v>
       </c>
       <c r="O5">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P5">
         <v>25</v>
@@ -8476,7 +8500,7 @@
         <v>24</v>
       </c>
       <c r="O6">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P6">
         <v>21</v>
@@ -8494,7 +8518,7 @@
         <v>33</v>
       </c>
       <c r="W6">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X6">
         <v>25</v>
@@ -8586,7 +8610,7 @@
         <v>25</v>
       </c>
       <c r="O7">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P7">
         <v>18</v>
@@ -8604,7 +8628,7 @@
         <v>69</v>
       </c>
       <c r="W7">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X7">
         <v>23</v>
@@ -8678,7 +8702,7 @@
         <v>26</v>
       </c>
       <c r="O8">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P8">
         <v>12</v>
@@ -8696,7 +8720,7 @@
         <v>70</v>
       </c>
       <c r="W8">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X8">
         <v>21</v>
@@ -8770,7 +8794,7 @@
         <v>27</v>
       </c>
       <c r="O9">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P9">
         <v>10</v>
@@ -8779,7 +8803,7 @@
         <v>76</v>
       </c>
       <c r="W9">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X9">
         <v>19</v>
@@ -8844,7 +8868,7 @@
         <v>71</v>
       </c>
       <c r="W10">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X10">
         <v>17</v>
@@ -8896,14 +8920,11 @@
       <c r="L11">
         <v>15</v>
       </c>
-      <c r="P11">
-        <v>0.1</v>
-      </c>
       <c r="V11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="W11">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X11">
         <v>15</v>
@@ -8959,7 +8980,7 @@
         <v>67</v>
       </c>
       <c r="W12">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="X12">
         <v>12</v>
@@ -9010,9 +9031,6 @@
       </c>
       <c r="L13">
         <v>10</v>
-      </c>
-      <c r="O13">
-        <v>0.3</v>
       </c>
       <c r="Z13" t="s">
         <v>36</v>

--- a/Excel-Skill-Map.xlsx
+++ b/Excel-Skill-Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThepExcel\web\excel map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA05DD7-91A4-4C2B-9B2C-9FA95F002F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58630F5B-4A13-4317-B6DB-9A3B0B729E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{249BCC48-19E4-4CD8-9BDE-200D2312C7C7}" type="CELLRANGE">
+                    <a:fld id="{E13EE17E-0BA6-4DC1-A1F8-D17079571609}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1052,7 +1052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E71D15A-D769-4C8E-AA41-9BAA1F0CEE41}" type="CELLRANGE">
+                    <a:fld id="{11BA4EE9-49BF-47E1-A10D-AF478B3D577A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1086,7 +1086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6B512EF-0AFC-49DD-B8F5-428EB3D78830}" type="CELLRANGE">
+                    <a:fld id="{9BCFC4FB-904B-4163-B88A-0B067E9167F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1120,7 +1120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E564C54-F028-483A-9425-A19425040281}" type="CELLRANGE">
+                    <a:fld id="{AACC6AFD-DE7F-44A6-94DC-CBB4596B711E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1154,7 +1154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9419CB23-92ED-47BC-A64D-EA4661078207}" type="CELLRANGE">
+                    <a:fld id="{9E7C6A9D-98D8-4C99-B502-60607DFBD9BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1501,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0478B0F8-B6A2-436A-A851-CAC3244D2B02}" type="CELLRANGE">
+                    <a:fld id="{3F7FA796-B69D-4DA4-A1E8-C2685A69DC10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1534,7 +1534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DD45A9C-D628-49C1-A241-581FABF4DFF3}" type="CELLRANGE">
+                    <a:fld id="{162FC407-B46B-4BE4-97FF-079B38A612DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1567,7 +1567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB73C89B-6FD3-4D7A-83B2-AC53CFE01622}" type="CELLRANGE">
+                    <a:fld id="{AA03D1D6-B985-4451-84DA-3D86C182BC18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1600,7 +1600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18C60C1F-5A6F-4581-8D0B-F513DA2043E9}" type="CELLRANGE">
+                    <a:fld id="{CBD6BC98-B3D0-4B8A-8AD3-00FEA339A0A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1633,7 +1633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4661E21A-9DE8-49D0-8909-E1BEED18BC08}" type="CELLRANGE">
+                    <a:fld id="{C52629F5-53CD-425D-953E-E2F023208DED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1676,7 +1676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51E2D540-9A60-47EC-AA36-E8277B02379C}" type="CELLRANGE">
+                    <a:fld id="{73FEA142-7697-40FA-913A-33D5BA738C6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2039,7 +2039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1191817-91B5-4D06-BFE2-367A8C907385}" type="CELLRANGE">
+                    <a:fld id="{8AB63FB2-38B2-4063-B9DD-C1F8C3B42795}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2072,7 +2072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38FFEC6B-7B8B-4840-A70F-58D6852CDDC4}" type="CELLRANGE">
+                    <a:fld id="{5B93E3EE-8704-4232-A39D-C3EC482FA3AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2115,7 +2115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{461366A7-2AE7-4BCE-AD95-287DA8DE9F81}" type="CELLRANGE">
+                    <a:fld id="{D5D6049D-B9E3-49A4-9AAD-0CA9223CA0B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2148,7 +2148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42BC7B71-B592-4A98-BDA7-F96DE90E189D}" type="CELLRANGE">
+                    <a:fld id="{93DCF58D-9241-42A1-88E4-9D4A22586299}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2181,7 +2181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14DD1D8D-8B7A-4C02-9227-C9C22DCB55D0}" type="CELLRANGE">
+                    <a:fld id="{A8235858-2644-498D-B06C-0C541B793291}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2214,7 +2214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{244EE062-EE67-4402-B1C7-A40074A941A0}" type="CELLRANGE">
+                    <a:fld id="{E9863043-9112-4235-83AB-D01E6DE6B74C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2257,7 +2257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0010AA89-48D0-45B4-968F-AB74BA5966F2}" type="CELLRANGE">
+                    <a:fld id="{732A2FDE-840B-41A8-A9CD-E7FB04A06935}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2290,7 +2290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26E72626-89A9-49BA-B235-4462A596729D}" type="CELLRANGE">
+                    <a:fld id="{2FA6895E-FAE9-47F6-8A53-E71E7E909E8F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2333,7 +2333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EAF54BE-1822-4FC1-8D86-5853C7761F34}" type="CELLRANGE">
+                    <a:fld id="{ACAC8017-CA9E-41F8-ACE6-16C6250D902C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2402,10 +2402,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.7</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.7</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -2660,7 +2660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CF09FD7-AC3F-4CF5-8EC1-7184DD4F092E}" type="CELLRANGE">
+                    <a:fld id="{94416D54-1D8E-415D-9C03-799FB2785972}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2694,7 +2694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6FA7150-1CEC-42EB-876F-F23C8E4AD924}" type="CELLRANGE">
+                    <a:fld id="{DA3D71FA-A4C6-49D7-8BCE-E6BA29E21D7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2738,7 +2738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E4F4693-7C02-4BCC-924A-DD24D22962B5}" type="CELLRANGE">
+                    <a:fld id="{C91C774F-3D4E-404D-A469-DE197E04ACFF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2772,7 +2772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B379FDAC-3C75-44DD-BF5F-6EFD536AC54B}" type="CELLRANGE">
+                    <a:fld id="{A082151A-3394-4F02-9EF2-EA42D607FE5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2806,7 +2806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF2CBC0C-0CE2-4AA1-B36E-17727792074B}" type="CELLRANGE">
+                    <a:fld id="{1E53AEC9-739E-4915-A71B-A2591E95EABC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2840,7 +2840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B32DC62-221C-4536-B831-5742A3080B5E}" type="CELLRANGE">
+                    <a:fld id="{1FDCFC32-1094-474D-9A05-008628892D36}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2884,7 +2884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AFC2613-2C35-440A-95A2-E7B63186E9F6}" type="CELLRANGE">
+                    <a:fld id="{81175BDB-1066-4EB8-8784-8889277902DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2917,7 +2917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2089C23-5ADB-470A-9494-6D914EDA86B2}" type="CELLRANGE">
+                    <a:fld id="{C1E5ECB0-EB93-4D5F-9858-35F6CD1B3DFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2950,7 +2950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AB2CD59-9252-42A9-B738-837497031EF6}" type="CELLRANGE">
+                    <a:fld id="{C4A340EB-BFAD-45B3-890B-3374D048F7DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2983,7 +2983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF812021-C415-42E3-996A-54EA25C8F9B2}" type="CELLRANGE">
+                    <a:fld id="{442D93BB-D3F7-4C23-AC4E-C1B3B9682B23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3353,7 +3353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD1EEA60-56B6-4E09-9CE8-55D13AE9F11E}" type="CELLRANGE">
+                    <a:fld id="{50209613-0927-4DE2-8A1B-8A819E6DB549}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3386,7 +3386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA55CDF8-4419-4E5A-B91A-CE31F736228E}" type="CELLRANGE">
+                    <a:fld id="{71B47032-B373-45EE-8250-335DDF7EDCA3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3420,7 +3420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0901E48-1444-4549-B6EE-52975E9E9B27}" type="CELLRANGE">
+                    <a:fld id="{92D9C69D-3624-469E-823B-5296B26BC28E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3666,7 +3666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8EAAC34-DC40-4669-A53B-3704359B9B2A}" type="CELLRANGE">
+                    <a:fld id="{C6D9FFFE-E527-4328-A334-FCDDF8E6649F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3700,7 +3700,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B61EEBA6-77A9-4368-A3C4-602AA4EA065D}" type="CELLRANGE">
+                    <a:fld id="{5DB90633-16DF-4379-B989-E12EA19CE72E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3734,7 +3734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCC1DB3B-4EAF-4442-B478-F6DCEE573D0A}" type="CELLRANGE">
+                    <a:fld id="{A13F8771-15DF-4403-8CAB-AFA18EA1007B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3933,7 +3933,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{304E0441-CFDC-4037-BF61-B685ADDA4F7A}" type="CELLRANGE">
+                    <a:fld id="{B6E6B0AB-8982-433F-B13F-6C36D68568E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -3989,7 +3989,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{FEB07800-CC4A-463B-8EF1-B3D3E4B691E1}" type="CELLRANGE">
+                    <a:fld id="{595F80C6-C249-4494-866B-BC76C008C209}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4045,7 +4045,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8BBDD07D-9C75-4841-B1C5-F73358A6DE9C}" type="CELLRANGE">
+                    <a:fld id="{98904DB1-DF5F-4ABE-8B35-79D267440159}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4092,7 +4092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BFA02D2-78B7-44EA-B675-A3C2F4BECE08}" type="CELLRANGE">
+                    <a:fld id="{E040CBFF-EEB1-4232-9A2D-546FB44B5F68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4135,7 +4135,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{162A3879-9B10-414D-A4B9-80B3F65F41C5}" type="CELLRANGE">
+                    <a:fld id="{BFAA984C-EE2F-4FE6-B89E-01D14D548EA6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4262,7 +4262,7 @@
                         </a:solidFill>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F9086152-0E89-4265-B663-094B2AB0C6E7}" type="CELLRANGE">
+                    <a:fld id="{9D6555BF-609B-42C3-93E9-0A7ADA4587A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1100" b="1" i="1">
@@ -4476,7 +4476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1050FF0F-7452-406B-9BBB-C7EADF5E8F5D}" type="CELLRANGE">
+                    <a:fld id="{DD57AE13-7DAA-447F-8076-BFB8A8988EC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4509,7 +4509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C4B0B0B-E024-44C6-B257-E69CA7A78C4A}" type="CELLRANGE">
+                    <a:fld id="{95901280-77CD-4829-BDC0-BDE221536CD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4543,7 +4543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08975F5C-7689-4741-A96E-E8F14BED2F6F}" type="CELLRANGE">
+                    <a:fld id="{63F27C13-C2E9-4841-8241-FF48B9B1835D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4577,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE54FDDE-D912-48C4-AEAE-3B1210F307D9}" type="CELLRANGE">
+                    <a:fld id="{63ABF278-A40A-487A-858E-B004CCDDA6FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4610,7 +4610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4D69C5B-2D61-4E62-B613-982E43DBB46B}" type="CELLRANGE">
+                    <a:fld id="{71B0AC73-3B72-4A06-9470-D3CE3B5DE83F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F274809-3BF0-4BFB-9CEA-0FFC33AB465F}" type="CELLRANGE">
+                    <a:fld id="{51F24B06-3F1F-4FE6-9A95-27A4E524AF71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4676,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA02B6BE-3D36-4B3C-830E-90912561986B}" type="CELLRANGE">
+                    <a:fld id="{D16F2E41-B57E-4BB6-97B4-D3D8679A76D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4709,7 +4709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3EBB6E8-6F92-4A3D-A28A-9FFA27F2A752}" type="CELLRANGE">
+                    <a:fld id="{9E48B686-D8E4-427D-8064-975F8F301FA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4742,7 +4742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{773F8BA1-4FE2-45BD-A9D0-7C1D35CEE64F}" type="CELLRANGE">
+                    <a:fld id="{23B80B91-DD06-4054-8A10-235EE83A5C31}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4775,7 +4775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58D97BA7-41A2-4586-B61C-B3E75A779D37}" type="CELLRANGE">
+                    <a:fld id="{3B7D8151-ADE0-4826-9B1A-F9DE5E41BFC2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4808,7 +4808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{028776E2-F18C-444D-9F03-60A3ECEB2A11}" type="CELLRANGE">
+                    <a:fld id="{C0802132-F389-4B93-9869-F8E575610B2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4841,7 +4841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{400EC090-F65E-439D-851E-E9743F5929C8}" type="CELLRANGE">
+                    <a:fld id="{62F47F6E-D55E-4CC6-9E36-6E01D5D5DE65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4880,7 +4880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D2276A2-F144-47F1-B33C-649E98E78A82}" type="CELLRANGE">
+                    <a:fld id="{93BB7599-15EE-4E4C-BDA4-24FFEE65F62F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4913,7 +4913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10A0E1E2-9CDF-4396-B3AD-831AE6C5D125}" type="CELLRANGE">
+                    <a:fld id="{593A7018-36AB-4988-A2A5-3907E570F497}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5208,7 +5208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{892E0310-E6DB-4BBD-9086-62942AE060D2}" type="CELLRANGE">
+                    <a:fld id="{95362C65-B050-42AE-A7C1-F36F4C2F834A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5240,7 +5240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65CE85C4-5A01-483A-B181-68DD13F83298}" type="CELLRANGE">
+                    <a:fld id="{3A8DC8BF-5906-49A2-9F08-41C202E3055A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5273,7 +5273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A37038A-1D0B-444E-8130-CA38668961A8}" type="CELLRANGE">
+                    <a:fld id="{E576DB8B-81F6-47F4-B20C-1738E0F0030F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5316,7 +5316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2963F615-A9BB-44F9-8073-99361F429072}" type="CELLRANGE">
+                    <a:fld id="{4C9511D0-646D-4CE6-BD88-2CA32744AF42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5349,7 +5349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{754CC01F-6813-4022-8DCC-88B973F4D5DD}" type="CELLRANGE">
+                    <a:fld id="{581DBEC8-9D6C-4893-9B43-2C3A5DD45B35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5382,7 +5382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD5FE2C8-0FBD-462F-A813-2551DE398076}" type="CELLRANGE">
+                    <a:fld id="{C17C9F71-D3DF-4714-8A43-4B03623B6AA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5415,7 +5415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD07DFCD-3924-4113-B6A7-7AB8C05B2A33}" type="CELLRANGE">
+                    <a:fld id="{B96BDEE1-FE2C-480D-A8DE-1098829A06B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5448,7 +5448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B618C15-DBA2-4F56-B834-15EE91575807}" type="CELLRANGE">
+                    <a:fld id="{4592C603-9F7F-4637-8A50-C7419A297F7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5481,7 +5481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44E214AE-EBD2-4673-918E-0755DD6ED665}" type="CELLRANGE">
+                    <a:fld id="{4A033B07-F738-4023-9BBE-9C46AC0C2449}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5671,11 +5671,11 @@
                     <c:v>Report Layout</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Show Value as</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
                     <c:v>Summarized 
 Values by</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Show Value as</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Slicer</c:v>
@@ -5782,7 +5782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1006EEFE-FEDB-40BF-AF21-860B43C64EBC}" type="CELLRANGE">
+                    <a:fld id="{52CDFCB2-42DC-47DD-8E58-84D2ABA09A54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5816,7 +5816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F17609D0-4215-442E-882F-5ABFFC73DB14}" type="CELLRANGE">
+                    <a:fld id="{0B806D06-CCC3-4911-B867-685A088CFE8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5850,7 +5850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41296FE7-DE7F-4AEC-BDCF-57ADB7FF18E1}" type="CELLRANGE">
+                    <a:fld id="{20E468E8-7DAE-4653-BD00-42C6B6F3A432}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5884,7 +5884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBD3F9EC-1B1A-4BE2-BD17-31C51F784CB9}" type="CELLRANGE">
+                    <a:fld id="{468C871D-2418-4568-A3C9-649BE263C888}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5918,7 +5918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25C9F0D2-C7FB-4B2A-94AE-F55F5711DFB1}" type="CELLRANGE">
+                    <a:fld id="{56815D7E-7850-49A5-938B-7D816F0E4045}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5952,7 +5952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E758F8AA-53D0-4369-8063-920C1CE66BB5}" type="CELLRANGE">
+                    <a:fld id="{6C7DDDBA-E86D-4DDD-91DF-525107FCDFFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5996,7 +5996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C219C1AD-2DF5-4591-8C58-348D6D68E090}" type="CELLRANGE">
+                    <a:fld id="{9DE88745-0424-45D3-A924-36650077C13C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6039,7 +6039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{548059C7-7198-48D8-86F3-E7436356A149}" type="CELLRANGE">
+                    <a:fld id="{197BD406-FED2-428D-81B0-9038F5CB4F18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6092,7 +6092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{136E1C95-F4E0-49DF-8D72-CA41E9F8D313}" type="CELLRANGE">
+                    <a:fld id="{C35A77DE-BC3E-4AE2-A4EA-A9B0396AF89A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6125,7 +6125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF21BEF5-F64A-46CE-A918-CD50905A90D2}" type="CELLRANGE">
+                    <a:fld id="{6945086A-7AAA-4B1E-A054-C9465D16A971}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6472,7 +6472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAAD6F5C-5FBF-4AD5-8FAA-82121287AFF5}" type="CELLRANGE">
+                    <a:fld id="{2C0F4D7D-5E73-413A-8C0F-94A95817B51B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6505,7 +6505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{043CA5D4-758D-423C-9F6B-3F987509DB9D}" type="CELLRANGE">
+                    <a:fld id="{BC464172-25FA-4A6C-A96E-992DFB0E8990}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6548,7 +6548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA2D70F9-9953-44C6-9489-BCFD0AB72A72}" type="CELLRANGE">
+                    <a:fld id="{2B005B8B-EEDC-48D6-9048-F11CBD781B99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6581,7 +6581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC86858E-9FE7-47A5-88EE-AC397FCB0A60}" type="CELLRANGE">
+                    <a:fld id="{6EC38304-8FA9-4D02-9480-F0EE8B8C0E9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6614,7 +6614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE069E3F-0EA8-4A24-BD1C-8926287C3F8F}" type="CELLRANGE">
+                    <a:fld id="{63140186-0478-4E5E-8EEA-DEE01CED05A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6647,7 +6647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB454A4E-248E-4646-A04E-C89BCBF32B4B}" type="CELLRANGE">
+                    <a:fld id="{B17841B2-657B-4ECF-8E07-1DA2B25EBC11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6680,7 +6680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8584A03F-CE4D-4ACC-AB28-9AEBF544913C}" type="CELLRANGE">
+                    <a:fld id="{08B7DF23-5CF0-49C9-84AF-9D41037559BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6989,7 +6989,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7887,13 +7887,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7902,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AV21"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8197,7 +8197,7 @@
         <v>29</v>
       </c>
       <c r="AA3">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="AB3">
         <v>27.6</v>
@@ -8307,7 +8307,7 @@
         <v>30</v>
       </c>
       <c r="AA4">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="AB4">
         <v>25.4</v>
@@ -8598,7 +8598,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>24.1</v>
@@ -8689,8 +8689,8 @@
       <c r="D8">
         <v>28</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>83</v>
+      <c r="J8" t="s">
+        <v>82</v>
       </c>
       <c r="K8">
         <v>24.1</v>
